--- a/ITP/解答用紙サンプル_ITP#xx.xlsx
+++ b/ITP/解答用紙サンプル_ITP#xx.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA171EE9-FA8E-4703-A4DC-3D5F7E738896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="795" windowWidth="9240" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>ページ数</t>
     <rPh sb="3" eb="4">
@@ -66,14 +75,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハードウェア（１）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハードウェア（２）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>問題数</t>
     <rPh sb="0" eb="3">
       <t>モンダイスウ</t>
@@ -94,11 +95,43 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ソフトウェア(8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルチメディア(1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルチメディア(2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルチメディア(3)</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,10 +193,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -444,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E27" sqref="E2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -478,18 +514,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -499,7 +537,9 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -509,19 +549,23 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -531,7 +575,9 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -541,23 +587,27 @@
       <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -567,7 +617,9 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -577,29 +629,35 @@
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>45</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -609,121 +667,193 @@
       <c r="D13" s="1">
         <v>6</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="1">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>47</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="1">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>49</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -992,11 +1122,11 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <f>COUNT(D2:D60)</f>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F61">
         <f>SUM(F2:F60)</f>
@@ -1005,7 +1135,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D63" s="2">
         <f>F61/D61</f>
@@ -1014,7 +1144,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D64" t="str">
         <f>IF(D63&gt;=80%,"受け取り","レポート")</f>
